--- a/HIV.xlsx
+++ b/HIV.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TSiqueira/Desktop/Trabalho1CM4/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="8400" windowHeight="2400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="variáveis" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>PAC</t>
   </si>
@@ -76,13 +85,40 @@
   </si>
   <si>
     <t>0=sem inibidor de protease; 1=com inibidor de protease</t>
+  </si>
+  <si>
+    <t>pct</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>imc</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>homa</t>
+  </si>
+  <si>
+    <t>cd4</t>
+  </si>
+  <si>
+    <t>ct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +164,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,14 +213,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -206,14 +247,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -240,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,45 +458,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -482,7 +525,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,7 +554,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -540,7 +583,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -569,7 +612,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -598,7 +641,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -627,7 +670,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -656,7 +699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -685,7 +728,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -714,7 +757,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -743,7 +786,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -772,7 +815,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -801,7 +844,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -830,7 +873,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -859,7 +902,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -888,7 +931,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -917,7 +960,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -946,7 +989,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -975,7 +1018,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1004,7 +1047,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1033,7 +1076,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1062,7 +1105,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1091,7 +1134,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1120,7 +1163,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1149,7 +1192,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1178,7 +1221,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1207,7 +1250,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1236,7 +1279,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1265,7 +1308,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1294,7 +1337,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1323,7 +1366,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1352,7 +1395,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1381,7 +1424,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1410,7 +1453,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1439,7 +1482,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1468,7 +1511,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1497,7 +1540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1526,7 +1569,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1555,7 +1598,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1584,7 +1627,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1623,19 +1666,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1654,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1670,7 +1713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1697,7 +1740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1716,16 +1759,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>